--- a/biology/Zoologie/Froud_et_Stouf/Froud_et_Stouf.xlsx
+++ b/biology/Zoologie/Froud_et_Stouf/Froud_et_Stouf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Froud et Stouf est une bande dessinée belge mettant en scène deux chiens bleus philosophes s'exprimant en bruxellois. Créée en 1996 par Frédéric Jannin (dessin) et Stefan Liberski (scénario)[1], elle a également fait l'objet d'une série d'animation réalisée en animation limitée[2] par Jannin lui-même[3] et diffusée sur Club RTL en 2010[4] et BX1 en 2019[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Froud et Stouf est une bande dessinée belge mettant en scène deux chiens bleus philosophes s'exprimant en bruxellois. Créée en 1996 par Frédéric Jannin (dessin) et Stefan Liberski (scénario), elle a également fait l'objet d'une série d'animation réalisée en animation limitée par Jannin lui-même et diffusée sur Club RTL en 2010 et BX1 en 2019.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les gens adorent , 2008, éd. Luc Pire
 Waf waf, 2010, éd. Luc Pire
